--- a/其他/資料庫.xlsx
+++ b/其他/資料庫.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WtfahaUser\UniversityCollege\1061\Android行動裝置軟體設計\FinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WtfahaUser\UniversityCollege\github\1061_SurpriseU\其他\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>account</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -83,10 +83,6 @@
   </si>
   <si>
     <t>maxPeople</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>changePage</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -268,15 +264,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>sender(P)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>reciever(F)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sender(P)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -649,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -663,7 +659,7 @@
     <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -674,228 +670,222 @@
         <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="M1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="32.4" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="G6" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="O6" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>34</v>
+      <c r="G7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="O8" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="Q8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O9" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="O10" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="J14" s="3"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H14" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
